--- a/العملاء.xlsx
+++ b/العملاء.xlsx
@@ -395,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,40 @@
       </c>
       <c r="J7" s="1" t="n">
         <v>44578</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>18/01/2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>تجديد اشتراك البوابه الالكترونيه</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>800</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>44579</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +808,6 @@
       <c r="E6" t="n">
         <v>200</v>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>2022</v>
       </c>

--- a/العملاء.xlsx
+++ b/العملاء.xlsx
@@ -9,6 +9,13 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="C0 (0)" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="C1 (1)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="C4 (4)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ششششششششششششششششششششششش (6)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ضضضضضضضضضضضضضضضضضضضضضضض (222)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ىىىىىىىىىىىىىىىىىىىىىىىى (333)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ةةةةةةةةةةةةةةةةةةةةةةةةة (999)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="sad (66)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="vcmhjwe (7865)" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -409,13 +416,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,25 +433,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>vcmhjwe</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>7865</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>010</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>11-street</t>
         </is>
       </c>
     </row>
@@ -483,22 +480,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03/01/2022</t>
+          <t>18/01/2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>بطاقه ضريبيه</t>
+          <t>اقرار ضرائب قيمه مضافه</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>2022</v>
@@ -507,148 +504,83 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>44564</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>03/01/2022</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>44564</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>11/01/2022</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>اقرار ضرائب عامه</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>200</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>44572</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>17/01/2022</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>اقرار ضرائب عامه</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>200</v>
-      </c>
-      <c r="E7" t="n">
-        <v>800</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>first entry</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>17</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>44578</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>18/01/2022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>تجديد اشتراك البوابه الالكترونيه</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>800</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
         <v>18</v>
       </c>
-      <c r="J8" s="1" t="n">
-        <v>44579</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>010</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>11-street</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -662,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,22 +652,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10/01/2022</t>
+          <t>17/01/2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>اقرار ضرائب قيمه مضافه</t>
+          <t>اقرار ضرائب مرتبات</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">first entry </t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v>2022</v>
@@ -744,10 +681,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>44571</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="5">
@@ -758,22 +695,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>اقرار ضرائب مرتبات</t>
+          <t>اعداد و مراجعة ميزانيه</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">first entry </t>
-        </is>
+        <v>200</v>
       </c>
       <c r="G5" t="n">
         <v>2022</v>
@@ -791,16 +723,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17/01/2022</t>
+          <t>22/01/2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>اعداد و مراجعة ميزانيه</t>
+          <t>اقرار ضرائب عامه</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -815,43 +747,586 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>44578</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>22/01/2022</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+        <v>44583</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب قيمه مضافه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ششششششششششششششششششششششش</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>اقرار ضرائب عامه</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>200</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>2022</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>22</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>44583</v>
+      <c r="I4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ضضضضضضضضضضضضضضضضضضضضضضض</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>222</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ىىىىىىىىىىىىىىىىىىىىىىىى</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>333</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ةةةةةةةةةةةةةةةةةةةةةةةةة</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>999</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/العملاء.xlsx
+++ b/العملاء.xlsx
@@ -7,15 +7,20 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="C0 (0)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="C1 (1)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="C4 (4)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ششششششششششششششششششششششش (6)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ضضضضضضضضضضضضضضضضضضضضضضض (222)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ىىىىىىىىىىىىىىىىىىىىىىىى (333)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="ةةةةةةةةةةةةةةةةةةةةةةةةة (999)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sad (66)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="vcmhjwe (7865)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="C1 (1)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="C4 (4)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ششششششششششششششششششششششش (6)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ضضضضضضضضضضضضضضضضضضضضضضض (222)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ىىىىىىىىىىىىىىىىىىىىىىىى (333)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ةةةةةةةةةةةةةةةةةةةةةةةةة (999)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="sad (66)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="so (0)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="الخدمات" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name=" (99)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name=" (12)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Client (7)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Client (7)2" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Test Client (15)" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -409,14 +414,470 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>اتعاب لجنه داخلية</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>اضافة سياره</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب قيمه مضافه</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب مرتبات</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>بطاقه ضريبيه</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>تجديد اشتراك البوابه الالكترونيه</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>تحت الحساب</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>تسوية ملف ضريبى</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>تعديل النشاط</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>جواب مرور</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>حفظ الملف بالضرائب</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>رسوم استخراج مستوردين</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>رسوم البوابه الالكترونيه</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>رسوم تجديد مستوردين</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>سجل تجارى</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>سداد ضرائب عامه</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>سداد ضرائب قيمه مضافه</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>شطب سجل تجارى</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>شهاده بالموقف الضريبى</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>شهادة دخل 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>شهادة دخل 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>عمل موقع الكترونى</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>غرفه تجاريه</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>فحص ضرائب عامه</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>فحص ضريبة قيمه مضافه</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>لجنة طعن ضرائب عامه</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>مركز مالى</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ميزانيه عموميه</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>نماذج 41 ض</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="n">
+        <v>99</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>07/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب مرتبات</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20/01/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>200</v>
+      </c>
+      <c r="E5" t="n">
+        <v>900</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>44581</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asdasxz,ncmhkjerhnsxn
+sdflkjsdjf
+sadflkjslkdf
+</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -433,11 +894,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>vcmhjwe</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>7865</v>
+        <v>7</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -480,12 +941,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18/01/2022</t>
+          <t>20/01/2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>اقرار ضرائب قيمه مضافه</t>
+          <t>اقرار ضرائب مرتبات</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -496,6 +957,12 @@
       </c>
       <c r="E4" t="n">
         <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comment
+</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v>2022</v>
@@ -504,7 +971,253 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Client</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب مرتبات</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">comment
+</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test Client</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>بطاقه ضريبيه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20/01/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب قيمه مضافه</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>400</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>44581</v>
       </c>
     </row>
   </sheetData>
@@ -513,6 +1226,278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>new edited address</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>17/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب مرتبات</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">first entry </t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>17/01/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>اعداد و مراجعة ميزانيه</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>200</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>200</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>22/01/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>200</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>44583</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>adress</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>التاريخ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>الخدمه</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>التكلفه</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>المدفوع</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>الرصيد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الملاحظات</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب قيمه مضافه</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -529,25 +1514,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>ششششششششششششششششششششششش</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>010</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>11-street</t>
         </is>
       </c>
     </row>
@@ -581,272 +1556,6 @@
         <is>
           <t>الملاحظات</t>
         </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>التاريخ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>الخدمه</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>التكلفه</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>المدفوع</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>الرصيد</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>الملاحظات</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>17/01/2022</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>اقرار ضرائب مرتبات</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">first entry </t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>44578</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>17/01/2022</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>اعداد و مراجعة ميزانيه</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>200</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>200</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>44578</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>22/01/2022</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>اقرار ضرائب عامه</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>200</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>44583</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>التاريخ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>الخدمه</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>التكلفه</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>المدفوع</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>الرصيد</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>الملاحظات</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>18/01/2022</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>اقرار ضرائب قيمه مضافه</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +1569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,11 +1580,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ششششششششششششششششششششششش</t>
+          <t>ضضضضضضضضضضضضضضضضضضضضضضض</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -913,36 +1622,6 @@
         <is>
           <t>الملاحظات</t>
         </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>18/01/2022</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>اقرار ضرائب عامه</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -967,11 +1646,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ضضضضضضضضضضضضضضضضضضضضضضض</t>
+          <t>ىىىىىىىىىىىىىىىىىىىىىىىى</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -1063,11 +1742,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ىىىىىىىىىىىىىىىىىىىىىىىى</t>
+          <t>ةةةةةةةةةةةةةةةةةةةةةةةةة</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>333</v>
+        <v>999</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -1115,7 +1794,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>اقرار ضرائب عامه</t>
+          <t>اعداد و مراجعة ميزانيه</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1148,7 +1827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,11 +1838,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ةةةةةةةةةةةةةةةةةةةةةةةةة</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>999</v>
+        <v>66</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -1201,36 +1880,6 @@
         <is>
           <t>الملاحظات</t>
         </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>18/01/2022</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>اعداد و مراجعة ميزانيه</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,11 +1904,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>so</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
@@ -1297,36 +1946,6 @@
         <is>
           <t>الملاحظات</t>
         </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>18/01/2022</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>اقرار ضرائب عامه</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/العملاء.xlsx
+++ b/العملاء.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="الخدمات" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Client One (12)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="New (0)" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -395,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,25 +662,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Client One</t>
+          <t>New</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>21351</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>01019149495</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Mobarak City - Mansura</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -719,62 +709,65 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07/01/2021</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>عمل موقع الكترونى</t>
+          <t>اضافة سياره</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">first transaction
+          <t xml:space="preserve">عمؤو احمد محمود اسامخ احمد محمود علل محمد احمد محمةد على لان لبا يبل يبل منسي يمنبسي سيبمنتسيب سيبمةسيب سيبمةسيب سيبمسيةب يسبمةسيب سيبمةسيب سيبوسيبةميس بسيبمةسيب
 </t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>29/01/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>اضافة سياره</t>
+          <t>اقرار ضرائب قيمه مضافه</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Second transaction
+          <t xml:space="preserve">عمؤو ا
+اخمد 
+لامحل ب
+بلا
 </t>
         </is>
       </c>
@@ -782,13 +775,117 @@
         <v>2022</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>29</v>
-      </c>
       <c r="J5" s="1" t="n">
-        <v>44590</v>
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>اقرار ضرائب عامه</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>200</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>اضافة سياره</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ﻪﺟﺎﺣ ﻯﺍ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>44621</v>
       </c>
     </row>
   </sheetData>
